--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>EmailId</t>
   </si>
@@ -38,26 +38,26 @@
     <t>miller</t>
   </si>
   <si>
-    <t>dsf</t>
-  </si>
-  <si>
     <t>Shirts</t>
   </si>
   <si>
-    <t>shirt2</t>
-  </si>
-  <si>
     <t>Shirts3</t>
   </si>
   <si>
-    <t>Shirts4</t>
+    <t>Search Keyword</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +73,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,28 +418,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -436,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,10 +463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -465,8 +482,8 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>125487</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,8 +506,8 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>15487</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -500,5 +517,6 @@
     <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>EmailId</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>user3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>30-02-2020</t>
   </si>
 </sst>
 </file>
@@ -109,10 +116,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,22 +432,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -453,16 +461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +486,7 @@
         <v>1234568</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -494,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -502,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -519,4 +527,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>EmailId</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t>30-02-2020</t>
+  </si>
+  <si>
+    <t>URL List</t>
+  </si>
+  <si>
+    <t>https://www.thinkebiz.net/</t>
+  </si>
+  <si>
+    <t>https://www.thinkebiz.net/elabs/alexa-skill-development/</t>
+  </si>
+  <si>
+    <t>https://www.thinkebiz.net/technology/progressive-web-applications/</t>
+  </si>
+  <si>
+    <t>https://www.thinkebiz.net/ebiz-solutions/</t>
+  </si>
+  <si>
+    <t>https://www.thinkebiz.net/consulting/strategic-consulting/</t>
   </si>
 </sst>
 </file>
@@ -89,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,11 +141,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -568,4 +594,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>EmailId</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>https://www.thinkebiz.net/consulting/strategic-consulting/</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -487,13 +490,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,11 +509,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1234568</v>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,8 +569,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,13 +604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" customWidth="1"/>
+    <col min="1" max="1" width="91.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>EmailId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
@@ -28,66 +25,48 @@
     <t>prasad@yopmail.com</t>
   </si>
   <si>
+    <t>gvv@gmail.com</t>
+  </si>
+  <si>
+    <t>jack@yopmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>25487</t>
+  </si>
+  <si>
     <t>prasu1234</t>
   </si>
   <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>roy</t>
-  </si>
-  <si>
-    <t>miller</t>
-  </si>
-  <si>
-    <t>Shirts</t>
-  </si>
-  <si>
-    <t>Shirts3</t>
-  </si>
-  <si>
-    <t>Search Keyword</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>30-02-2020</t>
-  </si>
-  <si>
-    <t>URL List</t>
-  </si>
-  <si>
-    <t>https://www.thinkebiz.net/</t>
-  </si>
-  <si>
-    <t>https://www.thinkebiz.net/elabs/alexa-skill-development/</t>
-  </si>
-  <si>
-    <t>https://www.thinkebiz.net/technology/progressive-web-applications/</t>
-  </si>
-  <si>
-    <t>https://www.thinkebiz.net/ebiz-solutions/</t>
-  </si>
-  <si>
-    <t>https://www.thinkebiz.net/consulting/strategic-consulting/</t>
+    <t>roy@gmail.com</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,27 +81,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,22 +106,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +136,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -211,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +297,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -343,13 +306,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +322,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -387,12 +350,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -423,7 +386,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -442,7 +405,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -454,50 +417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,27 +438,36 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,120 +475,32 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" display="prasad@yopmail.com"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="91.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId6" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -31,32 +31,19 @@
     <t>jack@yopmail.com</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>25487</t>
-  </si>
-  <si>
     <t>prasu1234</t>
   </si>
   <si>
     <t>roy@gmail.com</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>sdf48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,20 +93,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,10 +123,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -174,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +284,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -306,13 +293,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -322,7 +309,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -331,7 +318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,7 +327,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,12 +337,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -386,7 +373,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -405,7 +392,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -417,19 +404,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,70 +424,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId6" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -22,28 +22,44 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>prasad@yopmail.com</t>
   </si>
   <si>
     <t>gvv@gmail.com</t>
   </si>
   <si>
-    <t>jack@yopmail.com</t>
+    <t>prasad@gmail.com</t>
+  </si>
+  <si>
+    <t>mark@gmail.com</t>
   </si>
   <si>
     <t>prasu1234</t>
   </si>
   <si>
-    <t>roy@gmail.com</t>
-  </si>
-  <si>
-    <t>sdf48</t>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>asd123</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,20 +109,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -161,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -293,13 +309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -309,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -318,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -327,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,12 +353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -373,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -392,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -404,69 +420,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId5" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -429,8 +429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -424,16 +424,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -455,7 +455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -477,7 +477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>

--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -49,17 +49,13 @@
     <t>4564</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>Sno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,20 +105,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -139,10 +135,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -177,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +296,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -309,13 +305,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +321,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +330,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,12 +349,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -389,7 +385,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -408,7 +404,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -420,82 +416,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId5" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestData.xlsx
+++ b/testDataFiles/TestData.xlsx
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>23/05/2020</t>
   </si>
 </sst>
 </file>
@@ -362,24 +374,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
